--- a/seautotet-public/control/report/yxyapi-report.xlsx
+++ b/seautotet-public/control/report/yxyapi-report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>用例编号</t>
   </si>
@@ -82,9 +82,6 @@
     <t>parmars=={"displayName": "Dawson","gender": "2","id": 38,"phoneNumber": "13800001111","username": "taTest_admin"}..headers=={'Content-Type':'application/json','Accept':'*/*','Cookie':'thinkjs=35dfdb4e-3d48-4ccd-844c-ffd8892b8956; hqUser=taTest_admin'}</t>
   </si>
   <si>
-    <t>{'msg': '这是我开发的第一个接口', 'msg_code': 1}</t>
-  </si>
-  <si>
     <t>{'msg': '这是我开1发的第一个接口', 'msg_code': 0}</t>
   </si>
   <si>
@@ -97,7 +94,7 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>断言不通过接口没有此值：presupposition,接口没有此值：smallVipUrl,对比格式通过</t>
+    <t>exception：HTTPConnectionPool(host='127.0.0.1', port=8888): Max retries exceeded with url: /index (Caused by NewConnectionError('&lt;urllib3.connection.HTTPConnection object at 0x04403ED0&gt;: Failed to establish a new connection: [WinError 10061] 由于目标计算机积极拒绝，无法连接。'))</t>
   </si>
   <si>
     <t>注册接口验证</t>
@@ -109,16 +106,13 @@
     <t>注册接口</t>
   </si>
   <si>
-    <t>parmars=={"displayName": '这是我开发的第一个接口',"gender": "2","id": 38,"phoneNumber": "13800001111","username": "taTest_admin"}..headers=={'Content-Type':'application/json','Accept':'*/*','Cookie':'thinkjs=35dfdb4e-3d48-4ccd-844c-ffd8892b8956; hqUser=taTest_admin'}</t>
+    <t>parmars=={"displayName": '^msg',"gender": "2","id": 38,"phoneNumber": "13800001111","username": "taTest_admin"}..headers=={'Content-Type':'application/json','Accept':'*/*','Cookie':'thinkjs=35dfdb4e-3d48-4ccd-844c-ffd8892b8956; hqUser=taTest_admin'}</t>
   </si>
   <si>
     <t>['1']</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>断言通过对比格式通过</t>
+    <t>exception：HTTPConnectionPool(host='127.0.0.1', port=8888): Max retries exceeded with url: /index (Caused by NewConnectionError('&lt;urllib3.connection.HTTPConnection object at 0x048110F0&gt;: Failed to establish a new connection: [WinError 10061] 由于目标计算机积极拒绝，无法连接。'))</t>
   </si>
 </sst>
 </file>
@@ -149,7 +143,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,12 +153,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -181,11 +169,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,31 +545,28 @@
       <c r="H2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" t="s">
         <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -591,28 +575,25 @@
         <v>19</v>
       </c>
       <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
         <v>30</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
         <v>31</v>
       </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" t="s">
         <v>32</v>
-      </c>
-      <c r="L3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/seautotet-public/control/report/yxyapi-report.xlsx
+++ b/seautotet-public/control/report/yxyapi-report.xlsx
@@ -94,7 +94,7 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>exception：HTTPConnectionPool(host='127.0.0.1', port=8888): Max retries exceeded with url: /index (Caused by NewConnectionError('&lt;urllib3.connection.HTTPConnection object at 0x04403ED0&gt;: Failed to establish a new connection: [WinError 10061] 由于目标计算机积极拒绝，无法连接。'))</t>
+    <t>exception：HTTPConnectionPool(host='127.0.0.1', port=8888): Max retries exceeded with url: /index (Caused by NewConnectionError('&lt;urllib3.connection.HTTPConnection object at 0x03D5A150&gt;: Failed to establish a new connection: [WinError 10061] 由于目标计算机积极拒绝，无法连接。'))</t>
   </si>
   <si>
     <t>注册接口验证</t>
@@ -112,7 +112,7 @@
     <t>['1']</t>
   </si>
   <si>
-    <t>exception：HTTPConnectionPool(host='127.0.0.1', port=8888): Max retries exceeded with url: /index (Caused by NewConnectionError('&lt;urllib3.connection.HTTPConnection object at 0x048110F0&gt;: Failed to establish a new connection: [WinError 10061] 由于目标计算机积极拒绝，无法连接。'))</t>
+    <t>exception：HTTPConnectionPool(host='127.0.0.1', port=8888): Max retries exceeded with url: /index (Caused by NewConnectionError('&lt;urllib3.connection.HTTPConnection object at 0x03D633B0&gt;: Failed to establish a new connection: [WinError 10061] 由于目标计算机积极拒绝，无法连接。'))</t>
   </si>
 </sst>
 </file>
